--- a/src/main/resources/excel/Events.xlsx
+++ b/src/main/resources/excel/Events.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dorip\Desktop\hackl\zg-hackathon-backend\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpolic\Desktop\projekti\hackl\culture_event\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A123BA04-3605-4EAB-9204-B440A85CD958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D869B95A-37A8-49A7-86C6-9E8C75EA15C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0950AAD1-E58A-4AEF-A588-90161BFA7E28}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0950AAD1-E58A-4AEF-A588-90161BFA7E28}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="1444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="1450">
   <si>
     <t>Prosjacka</t>
   </si>
@@ -4912,72 +4912,99 @@
     <t>event_image_url</t>
   </si>
   <si>
-    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732406400000/EuCLdAChnicDfsFZnXUCeQ/pJv4SEzW07pf45GFA0A_1doPImPKJSCzakKIuDY9RjzyL0njeeTxPSpglNPKKx1Bx2-fdJ7lrMP5LARnwnN1pnAvOCF0WeC16yHek40SLH2piMKU4MYP34ohV0T0aKXn4PKA4SaMQus5RuXbYXdIhA/K-nTi0WIlnEj92rw7W91sOfArgbQAW7EUOZEXny6t8s</t>
-  </si>
-  <si>
     <t>The award-winning writer for children and young adults, Sanja Pilić, is the author of the popular series of stories about a little girl named Maša, and just before the most beautiful holiday of the year, you can watch the play Maša and Christmas, based on her story, at the Trešnja Theater, directed by Ivan Leo Lemo with choreography by Leo Mujić.
 The play Maša and Christmas will bring the Trešnja Theater audience into the upcoming festive season and showcase the core values of Christmas. At the center of the story is eight-year-old Maša, a curious, joyful, and playful little girl who wants to bring the magic of Christmas to life. To Maša, Christmas is the most beautiful holiday of the year, and she doesn't accept the idea that some people have to spend it alone and sad. Inspired by the holiday spirit, with the help of her friend Tajana, she organizes a celebration for the entire neighborhood to share the joys of this holiday with everyone, because, as Maša says: "Who says fairy tales are only found in books? Sometimes they are part of our lives. And good people and children usually create fairy tales with their actions, making it seem like every day is Christmas, where all wishes can come true." Just like in the stories, children will undoubtedly see themselves in Maša’s adventures and join her in the winter joys that come their way</t>
   </si>
   <si>
-    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732406400000/WxzgokhDRaeoz7j6oEB0yA/2TfZDbJaEXshtKCF9Gc-CwH6O2Xs4Bh3oGzUKvFG8FcCzUi3M4ZBWx1bGw_4PzMBYJnz1kAPptUYC4nI3qKyrm7idQ9_Fxpfm6k7FZ0MsFrU4VZfgebvFOZb8TLqfss8CyEyvz6AjWvKtFUP_NTU7g/0jHNFO8Ju_w8kDx9CqomNCsVLh1KRuN8COGe0PyCx2Q</t>
-  </si>
-  <si>
-    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732406400000/r8bsRjwuWXIEJmr83SeJ5Q/a26SXpZLFCudVN1tVqH4KbX18uZ9e-Y-A1xSu8ZqGKwJuN2k63N-QQXaxhR5VV-OaoqWK8b6NuBHs0fgvXuEVOlHBJFX8gdVf2KgXSjNKsfFd6JLEtf6WjpjgrMNSM3RnV3KnNpzx8NUJ3FPPq7WnQ/ySIqb_l6VPvZAzq5-Eyv2_84OVS8jXg7t8IaCG7GaUc</t>
-  </si>
-  <si>
-    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732406400000/FxZlsRidNTbXLdcwiSppRQ/GPj7MzoknxCbFM6lStwXbcDl1sIn4VEiMt0xfI3lBBuev64s-XQ9pbqySuDJOuP_UarqeugM_E3ya1kOaeXOktcNtH5J4rWSSJzLYGstWNzyVlASSZ4WlHyp_41KE4ruTsg3gNy0Jx5TRc9na6vv2g/xnuOWVZYv4WZyox6vI1d2KjYi0_zp_Hi6C0uMWMvMjU</t>
-  </si>
-  <si>
-    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732406400000/wz9VIGDSFa-Xp6NanQhgfg/06Mfkmg4jX5ZZO8nATlcTIQ1Y9eA1VT4GrPmavVrs5SgR6xBsNh33r_tOBieN_uXWaUwJQ20OqOjolNJwK6_R1qsC0jhYdAvN9a4zqCj0gl9TqQUzgOACvCqHaxpnSJOTimlyGPXGW4wocwG2okBTA/OLgFDRPdg-XwX_E0tGhoKTzKKuye5L4hhD-byrDFN_k</t>
-  </si>
-  <si>
-    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732406400000/qNzk6vAvpMdRK5x1OQhzXQ/HQl_Jwqf1LeOIKYDVBLRpXKa3zumlnfmGQXkKZyxIxHzV_C9hse08WnKaKz1yyxhMPOn4FnNQNqhm8R2ywwbQlACwARA6YOZqpF9Fk_BzPArrQMB_kMFe8_uzEKZ3Rm0La2Kcnv2EnKAPsR8UaRDig/2sDu7JKmp26SM_4KJSGUvIcXyu9S15bxX4ptvKpE2U8</t>
-  </si>
-  <si>
-    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732406400000/3PsMyFAXVF7s6fcWBPYrHA/-kQT0mso6aUsa6qkUOEl4BJKzHLk1YpWvEAAut66MERUvxRmVGNJbKPomz8jfl7w1_APJfUZe_S6eTtgycmCX_ujmx20DXz9bZWxi41KihZxUts32eLT59qffjpEAGAxMD5L6rNhiWuidXuhicH1Mg/WhbeKexHgIlKR2YJ3Gx0G0lOdQT-6IN89H3d-A4T82c</t>
-  </si>
-  <si>
-    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732406400000/kiN39UKCY1iwwjNNLf9njg/fn28JehlNZtUGPjiFklvboBm7WvBjhYL-2TMt5z6L41cwUii-KEeCuFIFMUd8WyCPOA6XiR9rVH5YWFOGpyf5WQyRkE8mFbFN6ekoAha7xHzW91cXLlW4RDRq1FZpeB9zwVTwyza5PX9_NcqmU3Nlg/L4_5MtGU7jhZ-6kH3lKJlpkfXwE9C_VCZg2AoVXgu_k</t>
-  </si>
-  <si>
-    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732406400000/bhp0d4HZH_qHrbW-93mF-w/hC8DM4s9c_WmTKDJ20z-Hqfw_BWuSvP80y7KNYbu_L16nh0C-DO8ZeZBBXmPkymg4Rh3acFlVNKBB1mGgtx3O-ivJzzNqJvlRqHVAHd2xo_4sBwDd6B8ujd96WxIbJd6OKuftfxuMk8k33iUyLQBog/YIVBvY8FIJCy1KYJTdaFSdT4e1KxhIipIC6_m9-kdVY</t>
-  </si>
-  <si>
-    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732406400000/y2PgTphfGxR-v4NJIv85ZQ/M8QQWchVte1Xla5yDz8P3_XnUzSxmz_cLrek9PRashIJDGXxALRqFHH9AqItWUyMU0VvgZtfGhUdxQNiuts9Na2PCcwGoL5mZ6Hu0xaCna7m9AdQoMF4dwjHGFhxpTZ3EdMSRS5Lw1aIoIqGpvNHkA/TrWiM6IRVc9BbdmANYnnce0jq4U4jOCYXg2LkJB6XGo</t>
-  </si>
-  <si>
-    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732406400000/Q2RdimamvsvqFnCcEsUu3A/lcdhvN-usTTJaSqItTVzWhz4VPGBKbfCTeiBX5-wjHPtJ1-AfN_p0eOksFJ48FruSZ0omgThJJM0VC2gL__nlaJOV4n5kHnItH27hdMiAnX3U6ax03QDbtSmyNlnrgZk2VMoIiMz7mxEwIM87gaXHA/mOmaqvfTwli7cXw6IbhSmwgj8vqi8sDBNOl93gmz634</t>
-  </si>
-  <si>
-    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732406400000/728V96KdjeJz3dPp0XbA0g/vy9qR-ZjphrDPeL_-ejml7H6rUiRxd1kSN8RAZYCsYYlrkpIb-KDf9VWLOCcmx2eVeC4616d6_-2ezd5B6jlydyiUz8h8uXXNtHXtNlpI3DpCApxP1GNvu4uDY5TXgOkF_ti71idnavM4KlxTtH6XQ/fImlcirgBfgBhXDiQ9oNgMcdaPV3Aep-e7enEAhsscU</t>
-  </si>
-  <si>
-    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732406400000/N6r9atbYhv-oeiqOr_GVCQ/eCy8NkGNyN8GzGV80BlWgtw1nlgB3zq8-ChAezlYUOdPdCbZc1Xg9Z0AlPFEr5481tcGVHCh-Ecr1M4OASoYYMHusuEuS05k-FZnl-NEbWSDWoyiGnQ7KhclXcMxzDwALR_O_0dRqPIClUef393N7A/RMqrMzEgMx7l2hiIajXQVqAy-v60sRjdrxzMghf9t44</t>
-  </si>
-  <si>
-    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732406400000/BU6R7teshRs8oNsooNqQoA/dj_JRqoipXt670z8bUM9MtAxjLt8LBYgUhwc0_OVpZijRLqtRcvsj2baCi03OLZ5yj_oklRyX26hLpqzuxD9Vp0LuNtyDlQ1Feel5jues9BY088g58wvPL9JavCYUKYA5QzceH-YfUvO4ZNxU3ohKw/UUYrhUwm9ggQAP2JDXjMGU5n-SPITgmMWD3uyO4gTfY</t>
-  </si>
-  <si>
-    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732406400000/0ZQFbP0ubOSD39MG6n7BBQ/uPODdbglQ4euP98iLZm42I_gmY4vHr5PAw80jfeb2qx1CwNbjoBer364GUITEC9m3FYwOS5hWwfuG8DRAbO9R9VpDlIa3l3a-UsAeaxiPrD41Rg0XpjGIdtOowbxeQsXSCtnRtZodMljKnwtp5uq-w/WBbgLz4qhY6YRmpJt03RbHoQxInUBKLvwGaStPqv_XQ</t>
-  </si>
-  <si>
-    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732406400000/fhQPdPaWsFJakuWZbWAA5g/Jqwh2tVYDZkEE-0MpUBN6cbBc5mTxvELTTRsDp-0p8A-EcGl5lENXhhXUhDKlfIA2SptxJPWdPSrtv8UuZSJz2accBmbnxwajb7Ef7eHgL3XXLxh1RRgZCe9DfK8fQ_S9dkrAKINJCbY90Lgr88nqA/YGJ7IM3IU9RwOETwjZrZBOVI7OYHx9DzHi5WLABuRAE</t>
-  </si>
-  <si>
-    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732406400000/YOx1ek_9H_xPdqNng-BlPg/SB2_msipQvPrHKDcvYsBFQ7-6W_MUNprnjvRhOxNM3XLrJ5DZG10Z7cJlLEz_tgeFnwjyGCqreffllSLenJCGXC2m5wkexqIJDrOJwt55ZgSsj0NJurofyYRTDrP1Ci_2_dM3Z3_y6NmYnonBOLjDQ/dNFp4GSsxKaRNNqpSzKd6KvGPESdOERAlz0-aZF_TZk</t>
-  </si>
-  <si>
-    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732406400000/CjSFXyqWIV93bX_s7nsVyQ/TBPdukZTGVxnbf_-kzc-oDdgHsNn0kcAVuWLNR8-yKiPalARd7ZGeNPabFmO_UZ3rQOvNwsNwixeS7biYcpNU4MABS-o6qDsp7hVxKTc4RMv9nLPP_cccFuoE5hYs9LxC2aHbzxsVuwk-Q13s-mHUQ/n1x3Eo45idrvf1K05vL9Q52Ggq4gK4re6DPrkNY7bCs</t>
+    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/kZztiFHA17cENUwQq55DzQ/ebM6_orON5bHJDxezxAlfB4r6DlDWn2kSa5HtEXLk6ugVCxHA12hdR_uA5iILkEA1M6C8LXN33xdVpwiTuIgDs_s6yifHXWtryFrKorErcTGceZ84_47yIKrlpBuIXFIhU3eBIR0J_Ri2uO-v7ou0w/o2-lCtCFQ-wNUEKAKo_QxhP5nT_dA4Ufm-G4jU0KpXY</t>
+  </si>
+  <si>
+    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/OAqly_Fyok4RhirnFp1gUQ/4qI0UWS_3LfG37_A3v5kaOF-8-To3vMM0OmQwuk7nZn3tpWoyJshfOFEGPIko_44jcwS3pOxJWv3rrIbfuqXgK2eFMJGDCXsjox-KDVqd7oIuzERRYt3Syxl9t_bu2cgiqc0c4cLi6x1FpsP6jMpUQ/ZvKlpfO83ONx_ww_vewqPQClIqP1mbobEPedAwbjPQ8</t>
+  </si>
+  <si>
+    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/m5kSU4k1KKH23cVDRPwUUA/TRdDGegVrzqZu30t02BgQEAk-iU4XIPWkk7ESuUISJFYOdeTbriOAbKWpEO5A1TgBFXua8q9At-k8IJIJJ5fProXW9k1hjECr4tITwQFCyMl8-xFM0nMxwR5MfAwBo2isPz-XhQjMvLwm0I3w6XE1g/wm3OPsuQYyZ15iRae5CjYPHKY_dNzvoAYRckNjjQ2dA</t>
+  </si>
+  <si>
+    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/w7q9qW3tojZCjor1wHqnkA/7wlPx2MLJDAyIgJvBrhG3RON_4Q5OAws8eH3lHNBgBfbTb9SGsbdbe33L1trUe0nKa6bBSd2qy9Q5T28Nb9taGsIGk_wE3FORBQs6TjePtXd9G_04rvg5hJwIpxOQf0oCI6WgATQfrEMuwVCDptLqA/boQ3Vbq1oTWeMcDlnHBGtyTckAMYHRBX2cI0r4jII8Y</t>
+  </si>
+  <si>
+    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/4R6FsYrTAyhEtIXIZ44Suw/fjBDFzz4zt0CvM9-Rii0Y58dsKIg0IkmW07v20zCQs8yPKQQzcrS-rmM_-RSO9l8TAqyf1XQ54I8QgrYJ_d4LVjKkmcEaTPmyx_sHHt5u9JYSOpATfDPcc-RnG2DckV1LXwwNNGz1DRbLdMCWYntvA/Ep-UB-Y-cX2zTQaqEQBYmB7U4xZm7HB-wQlaYCVeVLk</t>
+  </si>
+  <si>
+    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/iOOkEN2NU7UfaGdqUHVTSw/UoDauK9B1OGkAfEcR8I6WuG-VCBOvapTl4JjApyT5l5BNxfK96tso07x0VFVNdOMgGkId60GqiGytHOwUhcab-DVRtYbqy35afVXMVSFgJkB2EAoR3iT0PN-v4oQLKs3CjIU2y24cioF8joRGRuiFA/xrfkmnQ6rCcPdrhx9z3wXgVg6qnQsHp-4rhzSmARdM0</t>
+  </si>
+  <si>
+    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/H16K1lOKv-L6zuY_tFSiGw/eKChfbgw2fej10aG6waEBwSFgHP0w4QNeLPrwgYBm7vyc6n7choVR4WOYDMyZGE7HpYhTSleS-oZO9iiH0ETgc5BBBP7j_qc_fPw2g-vupMnoKU7wdB74Ewq7_7v3t2IpMzCspFOAS0o1gjnRvptfQ/xzqe2Pbz_LWJqxfNycMh3DBTuv54rG6NZAqGk_4Q-Uw</t>
+  </si>
+  <si>
+    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/1fK-FIebbwyGtfBzHvnBKA/_SNGybeUT0f2YaRbjp970iKKMRfz-lnRrJhbT_wNd7A804xLX6iLU24tTG9JAlw9dYfDQGsaNEz26MAPxT5MmrHTkicwLrKvwU6uhjNXDXnvp6LOa7i1EJtXkGZgBxi3UPNvwzcck7pZrHz4SyPoFg/1QFK2nr01oG9_0umU0zUWjJijGFejXfSSA542pJcAno</t>
+  </si>
+  <si>
+    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/VtKR8ZSHuecFmWgyMmZTaw/_VNa1HgKFr5_kFOvYFTjyICZi8ayb8XC2XUUjsNfQXWr2M86jY1DAQ9SGWVGkCUwhsgvkZTSCFVKFTHnCYRqW8ztb1mm2KYfBKL5yKGOy5ywoQdv9Reh6fGVuelAkjxpYkx1KxxkbGQJE1rB_aySIw/-ai59I01otmFn-Fg_EJ9jJ2w_RqJBXFaGhkmDERCIYk</t>
+  </si>
+  <si>
+    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/UyV0o8RcGsRZXNpAZupt7Q/h2lLKIoW4HPPZza6mO5GRs2iFXhkVzQAukjKNubvh_k4xezajyQE4ekGjtFnj7RjsmZdt6-EfEhxicMIspCCCnBNzQ_CSReyY8Gc9TwnIViyaSdKkUeAJpG-nix5yCQPlVxY91qFetRqUgPZR0iLjw/oQONNDwKgmqD0JY9JbPCGen9sY8Tsha4c1VEqTnIPJc</t>
+  </si>
+  <si>
+    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/9BLMB0hZeI3bBj5TZdOBFQ/gitEvmQINQSzfF1lBQCs-8FKUl_CvColokPtFi1dt2Lg8DyBUAUOpVKzgNruqmI8wU1XUgmJ844sgPNZ-ew9A0f1tW47S9AirSdUZDsC-Bx34UIQbSiojphEhJ_N2T_Sd-ylXR91DH_wV2wDKENpxw/vsRzvRyh8S6Dj44fKMJ-j5yY7KXJds8oxd3jKZyziR4</t>
+  </si>
+  <si>
+    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/vtBfFLLLJojWd09deJUn-w/WsqsDFR3SaxpMLyuJJve4aLjGlbrAvtt7nnS09_j46_lodvYBijJWoGEiDnHCipgbq92pTj0DjKj27uYnHaSQWagsxFoDTqDKEl5MX2beyuekIqrp6G9v5dnlShuLyoJoBfT4PYypLmdhS-khpb2kA/hU9Afr79lN2F_j__u4xVTz6hIsZZk9gm_zVt2Yz-nZA</t>
+  </si>
+  <si>
+    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/UJkZUDxG3ZBvZXwMBY9Dtg/Zck3kSlzekreMcXLnvGaoEKxlcu32E6uQQoY1VFViNkU79EQ6VL-tz94wIXNHYukaxO3avaFm67ykn5nmihW7nS2H0usOA3JLvOmgRGMq-ug9XV8MCJkvbceKm1qAWkd0WD7vZOaAuTbKdMs60Ye3Q/fWeUNaiC6KhFIZJqRm0FIXwqmRcM7NHSX5_pFnaChjs</t>
+  </si>
+  <si>
+    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/rtLeL55YKXNYhq2NGFYU6A/lG1W6EFZpw8e9F_2SYYK7BKpUUEKiLox3DurPSBxEFzr08Nt7SPvcb7k43HUhocpFbF47CFHlKpN5Hv9DFi-SK1VaqiEgMuXswGeSg9ZxgehzE9cXiAge08JyQxIaAeHeN9PfkisqgWRZTHk8SDa8w/qt-OWnzw_brKVgmNtTczAinnPUB1X12k0_SWqhEoUIo</t>
+  </si>
+  <si>
+    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/E8mqUSeGmsXVTkmwcNnLpQ/-sQVtJbTH10RBfEZd1Rh_9DLaB9t6jvp9qgcECkcIHPa6_E5j92G_vUTQ1THmCgy6l3KRPZXQh0O4bOu20lOB1NOHfbHfq5kEaUs0o0b73vDj9eDOT1U3tFGhPI-qx3K51dhwi0HydYBX-k7ygzlbQ/WUXcBWcRwriHApdpY42WsVXUcUoR8kgnDGIeNg36brE</t>
+  </si>
+  <si>
+    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/21S0o_1tqRMp7poKycSyYg/z7QvPVM5cNF7f1OPakoVJZeddEii5D-4fAMaoXFPVEmOOYk6Rz3nNGSRBqLP5Epjn_9kTnN6fh-raYvutZj_SISRtPhtaGv6ai1JMItF0TJZ2L74C0N_sdSK4UHAll3ildLxkC06-1Z8bTGBeoanOg/lgEAgQyPjhlNSjVROr3sXTyVNullgJWJ_rrvYuSQrFM</t>
+  </si>
+  <si>
+    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/6QsPuUX0SUYZtMu2H5DzvQ/aidLtKxYJIzfu2cuhEvb_zLmzdJApe7aHuiRNbeIi0tDlZCLH1sNLXc6N96UiQ_2dPzqkhNzvInXnrHD4XNdrl5lB_qjwm77qaEsg4gfplwzEFvT-UNIpG2ihthCYgE79pgIJR6ARPKvXdpu7DHVjA/ei4BlX5Shysy1fiKZ8dKUoC9fulK_TlXOanE1M2QYN4</t>
+  </si>
+  <si>
+    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/_-drAhiOKFTBHlFbLvHAAQ/jyQbI5b030prW4VS1rGS2HyuWk240xIVW31ahok_0Wje9VF0YtmxPQ6p40BDWT2n6VRFz_tTbcs1eZeI6jt9YkwLhjy29JgOQrDgzOXtAcR2nGeL_0NL1ETVpHcK5CpA70aLqRfGGWvB-Dca8UzcQA/Ph-7beVPctC4VjFl8hNSQcDhHW_5JTJxuOqrGz6l2e8</t>
+  </si>
+  <si>
+    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/BLY19IvdoqynX6HxVor5xg/JvaweI-m2_qFtKPDHWYM0TahtkizJ66UsKErVJAcFy5HSzxz8OSgJNz83nH318afXZo9IBEfmovchljJ8FrmUji0UsvdPizuhl1x6PGIO-oaGTkRtIaOqce2vYIvLC_rRiYbL1m_l4DuGiMEeURMSQ/cpePndivtye4FewLtOizPTCjPSvsmhFOf9R_luV_Y8M</t>
+  </si>
+  <si>
+    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/gI7pR7G_pFQu8zRzPrM_Tg/Ek56opGwUNGqV9hbhOxsfSl3ml1KnunbsD_d4GCoOFUdQyMrjRDpUZ5db5NKeH4zWzELAaWk3ewBdzLUFnwTkHmvdTAWtQJc1yNwx-zwGaihQ6L327rD4X27eYAy4f12YXTcyGemVTWy84cvzO3MuQ/_rV3Eo_Vm0XDs4hrP1MViOaHlp-7FBP11ChHhYyfKPo</t>
+  </si>
+  <si>
+    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/15U2HYOyyOImkywWQg7UwA/oBcTqoXYOmqAu7yAMfCXjRB6e0DZ0gKdza5hwgN3Rlq_7ON1uII-1ruzfbFr2sU6K_2QstrMnZrKMVGbQETkJ9avchfGUfDF98TPG4lLY7gIJS6Y5d6YwUiGGRnEJRZrk87awqejfhz0JZ06S3nzWw/BRrjQkGA32KeHdPSrdlJDMUxBtOf22ZiHfDf87NpDHw</t>
+  </si>
+  <si>
+    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/JaJuroIBvGqkbwRvVqOg6g/Y9_Nq1KUTFrZ3A0HXR1tah8bjUnvcH8CPg4K74SMIIixUhWSIGNuxFAqlCROBgAWH_s3TiwxGh5jDJZuy6o73H3IufIwHraJB-uy4raVsRIImhszhjFo6DDVBLvJ6uR75QKyOcu4UcZBRMQf1WU6Sw/xNqsBvVOvSiU8tv4xi-7cCO_jxy3u30EUsrmw-k1uSo</t>
+  </si>
+  <si>
+    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/QV7Gum0uN_1MnCNbBxFwuw/kCXQrQ_kP_xJBSyJIQ6gAE_3IX4otFUKRzVlBm0ybf_c9RbmEfhlJD1NaMg2g4eUXm_2vEVl8zjccokEOsnhWBD32D_9YfE4CFTSNs0pCCulRBEy-AfOjEZbs6E1KLKl277ANZBKuNImD-_jJZ-ZGg/vWBIWXjoT9tPI_e17wiL7KXBJooTDV-LFRLkgPv1ea4</t>
+  </si>
+  <si>
+    <t>https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/JwuFrfnGgqKigOdMRZ5tvw/tMMBGfEs29cES1glPpCkg0H0jxzIJE21sPnZTk2aGP9_-83kVrOVFEQ1xXWmU6Cu1bYPo-aA6PAYptvVl5GZnq_mAjLg4pSlmKFAGp60ApTk5afBKy_jwaEmimKtQwmRYm_7-tiIbkq-8V6tGWihpg/j9O247b5V3_uEatWjEG4NqRP_QBHwJ56aomOtuYLDyg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="238"/>
@@ -5001,19 +5028,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hiperveza" xfId="1" builtinId="8"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5029,7 +5059,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5347,33 +5377,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29FA981-B01D-47A2-BFF2-1F0B2155C1C2}">
   <dimension ref="A1:X242"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView tabSelected="1" topLeftCell="X16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X38" sqref="X38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="3" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" customWidth="1"/>
-    <col min="20" max="20" width="5.7109375" customWidth="1"/>
-    <col min="21" max="22" width="7.42578125" customWidth="1"/>
-    <col min="23" max="23" width="5.28515625" customWidth="1"/>
-    <col min="24" max="24" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" customWidth="1"/>
+    <col min="21" max="22" width="7.44140625" customWidth="1"/>
+    <col min="23" max="23" width="5.33203125" customWidth="1"/>
+    <col min="24" max="24" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1360</v>
       </c>
@@ -5447,7 +5477,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5484,11 +5514,11 @@
       <c r="V2" t="s">
         <v>1396</v>
       </c>
-      <c r="X2" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X2" s="4" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -5525,11 +5555,11 @@
       <c r="V3" t="s">
         <v>1396</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="4" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5564,7 +5594,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -5599,7 +5629,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -5634,7 +5664,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -5671,11 +5701,11 @@
       <c r="V7" t="s">
         <v>1397</v>
       </c>
-      <c r="X7" t="s">
+      <c r="X7" s="4" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -5715,11 +5745,11 @@
       <c r="V8" t="s">
         <v>1397</v>
       </c>
-      <c r="X8" t="s">
+      <c r="X8" s="4" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -5762,11 +5792,11 @@
       <c r="W9" t="s">
         <v>1414</v>
       </c>
-      <c r="X9" t="s">
+      <c r="X9" s="4" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -5806,11 +5836,11 @@
       <c r="W10" t="s">
         <v>1414</v>
       </c>
-      <c r="X10" t="s">
+      <c r="X10" s="4" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -5850,11 +5880,11 @@
       <c r="W11" t="s">
         <v>1414</v>
       </c>
-      <c r="X11" t="s">
+      <c r="X11" s="4" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -5897,11 +5927,11 @@
       <c r="V12" t="s">
         <v>1399</v>
       </c>
-      <c r="X12" t="s">
+      <c r="X12" s="4" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -5947,11 +5977,11 @@
       <c r="V13" t="s">
         <v>1396</v>
       </c>
-      <c r="X13" t="s">
+      <c r="X13" s="4" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -5994,11 +6024,11 @@
       <c r="V14" t="s">
         <v>1398</v>
       </c>
-      <c r="X14" t="s">
+      <c r="X14" s="4" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -6038,11 +6068,11 @@
       <c r="V15" t="s">
         <v>1398</v>
       </c>
-      <c r="X15" t="s">
+      <c r="X15" s="4" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -6088,11 +6118,11 @@
       <c r="W16" t="s">
         <v>1415</v>
       </c>
-      <c r="X16" t="s">
+      <c r="X16" s="4" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -6141,11 +6171,11 @@
       <c r="W17" t="s">
         <v>1416</v>
       </c>
-      <c r="X17" t="s">
+      <c r="X17" s="4" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -6197,11 +6227,11 @@
       <c r="W18" t="s">
         <v>1416</v>
       </c>
-      <c r="X18" t="s">
+      <c r="X18" s="4" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -6247,11 +6277,11 @@
       <c r="W19" t="s">
         <v>1416</v>
       </c>
-      <c r="X19" t="s">
+      <c r="X19" s="4" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -6300,11 +6330,11 @@
       <c r="V20" t="s">
         <v>1396</v>
       </c>
-      <c r="X20" t="s">
+      <c r="X20" s="4" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>107</v>
       </c>
@@ -6353,11 +6383,11 @@
       <c r="W21" t="s">
         <v>1416</v>
       </c>
-      <c r="X21" t="s">
+      <c r="X21" s="4" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>118</v>
       </c>
@@ -6400,11 +6430,11 @@
       <c r="W22" t="s">
         <v>1414</v>
       </c>
-      <c r="X22" t="s">
+      <c r="X22" s="4" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -6430,7 +6460,7 @@
         <v>130</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="M23" t="s">
         <v>103</v>
@@ -6457,7 +6487,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>126</v>
       </c>
@@ -6507,7 +6537,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>134</v>
       </c>
@@ -6550,8 +6580,11 @@
       <c r="W25" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X25" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -6600,8 +6633,11 @@
       <c r="W26" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X26" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>149</v>
       </c>
@@ -6644,8 +6680,11 @@
       <c r="W27" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X27" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>154</v>
       </c>
@@ -6689,7 +6728,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>159</v>
       </c>
@@ -6738,8 +6777,11 @@
       <c r="W29" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X29" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>168</v>
       </c>
@@ -6785,8 +6827,11 @@
       <c r="W30" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X30" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>174</v>
       </c>
@@ -6833,7 +6878,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>180</v>
       </c>
@@ -6880,7 +6925,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>190</v>
       </c>
@@ -6920,8 +6965,11 @@
       <c r="W33" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X33" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>196</v>
       </c>
@@ -6953,7 +7001,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>201</v>
       </c>
@@ -7000,7 +7048,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>209</v>
       </c>
@@ -7053,7 +7101,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>216</v>
       </c>
@@ -7105,8 +7153,11 @@
       <c r="W37" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X37" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>224</v>
       </c>
@@ -7138,7 +7189,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>228</v>
       </c>
@@ -7185,7 +7236,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>234</v>
       </c>
@@ -7244,7 +7295,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>243</v>
       </c>
@@ -7303,7 +7354,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>249</v>
       </c>
@@ -7356,7 +7407,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>257</v>
       </c>
@@ -7409,7 +7460,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>265</v>
       </c>
@@ -7462,7 +7513,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>272</v>
       </c>
@@ -7512,7 +7563,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>279</v>
       </c>
@@ -7568,7 +7619,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>289</v>
       </c>
@@ -7624,7 +7675,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>298</v>
       </c>
@@ -7680,7 +7731,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>306</v>
       </c>
@@ -7736,7 +7787,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>310</v>
       </c>
@@ -7792,7 +7843,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>318</v>
       </c>
@@ -7848,7 +7899,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>326</v>
       </c>
@@ -7910,7 +7961,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>335</v>
       </c>
@@ -7966,7 +8017,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>343</v>
       </c>
@@ -8022,7 +8073,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>344</v>
       </c>
@@ -8078,7 +8129,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>347</v>
       </c>
@@ -8134,7 +8185,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>353</v>
       </c>
@@ -8190,7 +8241,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>359</v>
       </c>
@@ -8243,7 +8294,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>365</v>
       </c>
@@ -8299,7 +8350,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>366</v>
       </c>
@@ -8355,7 +8406,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>372</v>
       </c>
@@ -8411,7 +8462,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>376</v>
       </c>
@@ -8467,7 +8518,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>379</v>
       </c>
@@ -8523,7 +8574,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>382</v>
       </c>
@@ -8579,7 +8630,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>386</v>
       </c>
@@ -8635,7 +8686,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>389</v>
       </c>
@@ -8691,7 +8742,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>394</v>
       </c>
@@ -8747,7 +8798,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>397</v>
       </c>
@@ -8803,7 +8854,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>405</v>
       </c>
@@ -8859,7 +8910,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>409</v>
       </c>
@@ -8915,7 +8966,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>412</v>
       </c>
@@ -8971,7 +9022,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>415</v>
       </c>
@@ -9027,7 +9078,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>418</v>
       </c>
@@ -9080,7 +9131,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>418</v>
       </c>
@@ -9133,7 +9184,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>418</v>
       </c>
@@ -9186,7 +9237,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>418</v>
       </c>
@@ -9239,7 +9290,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>418</v>
       </c>
@@ -9292,7 +9343,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>446</v>
       </c>
@@ -9330,7 +9381,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>454</v>
       </c>
@@ -9377,7 +9428,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>462</v>
       </c>
@@ -9427,7 +9478,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>470</v>
       </c>
@@ -9477,7 +9528,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>477</v>
       </c>
@@ -9524,7 +9575,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>484</v>
       </c>
@@ -9571,7 +9622,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>488</v>
       </c>
@@ -9621,7 +9672,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="85" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>494</v>
       </c>
@@ -9671,7 +9722,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>501</v>
       </c>
@@ -9721,7 +9772,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>507</v>
       </c>
@@ -9771,7 +9822,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>512</v>
       </c>
@@ -9815,7 +9866,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>518</v>
       </c>
@@ -9868,7 +9919,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>526</v>
       </c>
@@ -9921,7 +9972,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="91" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>533</v>
       </c>
@@ -9977,7 +10028,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="92" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>541</v>
       </c>
@@ -10024,7 +10075,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>548</v>
       </c>
@@ -10074,7 +10125,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>553</v>
       </c>
@@ -10124,7 +10175,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>477</v>
       </c>
@@ -10171,7 +10222,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>201</v>
       </c>
@@ -10215,7 +10266,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>564</v>
       </c>
@@ -10265,7 +10316,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>570</v>
       </c>
@@ -10315,7 +10366,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>574</v>
       </c>
@@ -10365,7 +10416,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>577</v>
       </c>
@@ -10415,7 +10466,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>574</v>
       </c>
@@ -10465,7 +10516,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>582</v>
       </c>
@@ -10515,7 +10566,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>589</v>
       </c>
@@ -10562,7 +10613,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>595</v>
       </c>
@@ -10609,7 +10660,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>600</v>
       </c>
@@ -10665,7 +10716,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>608</v>
       </c>
@@ -10721,7 +10772,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>613</v>
       </c>
@@ -10777,7 +10828,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>619</v>
       </c>
@@ -10830,7 +10881,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>625</v>
       </c>
@@ -10877,7 +10928,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>629</v>
       </c>
@@ -10927,7 +10978,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>637</v>
       </c>
@@ -10971,7 +11022,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>641</v>
       </c>
@@ -11015,7 +11066,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>644</v>
       </c>
@@ -11056,7 +11107,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>648</v>
       </c>
@@ -11100,7 +11151,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>648</v>
       </c>
@@ -11144,7 +11195,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>655</v>
       </c>
@@ -11191,7 +11242,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>661</v>
       </c>
@@ -11238,7 +11289,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>666</v>
       </c>
@@ -11285,7 +11336,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>477</v>
       </c>
@@ -11329,7 +11380,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>676</v>
       </c>
@@ -11385,7 +11436,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>683</v>
       </c>
@@ -11435,7 +11486,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>689</v>
       </c>
@@ -11491,7 +11542,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>695</v>
       </c>
@@ -11541,7 +11592,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>701</v>
       </c>
@@ -11603,7 +11654,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>709</v>
       </c>
@@ -11656,7 +11707,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>715</v>
       </c>
@@ -11712,7 +11763,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>723</v>
       </c>
@@ -11759,7 +11810,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>730</v>
       </c>
@@ -11806,7 +11857,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>736</v>
       </c>
@@ -11856,7 +11907,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>742</v>
       </c>
@@ -11900,7 +11951,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>477</v>
       </c>
@@ -11947,7 +11998,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>753</v>
       </c>
@@ -11991,7 +12042,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>759</v>
       </c>
@@ -12035,7 +12086,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>764</v>
       </c>
@@ -12079,7 +12130,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>769</v>
       </c>
@@ -12117,7 +12168,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>774</v>
       </c>
@@ -12152,7 +12203,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>777</v>
       </c>
@@ -12199,7 +12250,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>785</v>
       </c>
@@ -12243,7 +12294,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>791</v>
       </c>
@@ -12284,7 +12335,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>797</v>
       </c>
@@ -12319,7 +12370,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>803</v>
       </c>
@@ -12357,7 +12408,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>807</v>
       </c>
@@ -12392,7 +12443,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>810</v>
       </c>
@@ -12433,7 +12484,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>814</v>
       </c>
@@ -12480,7 +12531,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>819</v>
       </c>
@@ -12512,7 +12563,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>823</v>
       </c>
@@ -12541,7 +12592,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>826</v>
       </c>
@@ -12570,7 +12621,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>829</v>
       </c>
@@ -12608,7 +12659,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>835</v>
       </c>
@@ -12661,7 +12712,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>842</v>
       </c>
@@ -12711,7 +12762,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>842</v>
       </c>
@@ -12761,7 +12812,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>854</v>
       </c>
@@ -12814,7 +12865,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>860</v>
       </c>
@@ -12870,7 +12921,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>866</v>
       </c>
@@ -12920,7 +12971,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>870</v>
       </c>
@@ -12979,7 +13030,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>878</v>
       </c>
@@ -13041,7 +13092,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>885</v>
       </c>
@@ -13100,7 +13151,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>892</v>
       </c>
@@ -13156,7 +13207,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>900</v>
       </c>
@@ -13218,7 +13269,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>907</v>
       </c>
@@ -13274,7 +13325,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="161" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>915</v>
       </c>
@@ -13330,7 +13381,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="162" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>921</v>
       </c>
@@ -13386,7 +13437,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="163" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>926</v>
       </c>
@@ -13427,7 +13478,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="164" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>930</v>
       </c>
@@ -13480,7 +13531,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>936</v>
       </c>
@@ -13539,7 +13590,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="166" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>944</v>
       </c>
@@ -13586,7 +13637,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="167" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>951</v>
       </c>
@@ -13630,7 +13681,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="168" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>955</v>
       </c>
@@ -13680,7 +13731,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="169" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>961</v>
       </c>
@@ -13727,7 +13778,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="170" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>964</v>
       </c>
@@ -13777,7 +13828,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="171" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>968</v>
       </c>
@@ -13821,7 +13872,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="172" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>971</v>
       </c>
@@ -13877,7 +13928,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="173" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>980</v>
       </c>
@@ -13918,7 +13969,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="174" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>983</v>
       </c>
@@ -13965,7 +14016,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="175" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>987</v>
       </c>
@@ -14006,7 +14057,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="176" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>992</v>
       </c>
@@ -14050,7 +14101,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="177" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>995</v>
       </c>
@@ -14112,7 +14163,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="178" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>1001</v>
       </c>
@@ -14174,7 +14225,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="179" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>1009</v>
       </c>
@@ -14224,7 +14275,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="180" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>971</v>
       </c>
@@ -14283,7 +14334,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="181" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>971</v>
       </c>
@@ -14339,7 +14390,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="182" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>971</v>
       </c>
@@ -14401,7 +14452,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="183" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>971</v>
       </c>
@@ -14460,7 +14511,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="184" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>971</v>
       </c>
@@ -14516,7 +14567,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="185" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>971</v>
       </c>
@@ -14578,7 +14629,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="186" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>971</v>
       </c>
@@ -14640,7 +14691,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>1009</v>
       </c>
@@ -14693,7 +14744,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="188" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>1056</v>
       </c>
@@ -14737,7 +14788,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="189" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>1063</v>
       </c>
@@ -14778,7 +14829,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="190" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>1068</v>
       </c>
@@ -14819,7 +14870,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="191" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>1072</v>
       </c>
@@ -14857,7 +14908,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="192" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>1076</v>
       </c>
@@ -14892,7 +14943,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="193" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>1078</v>
       </c>
@@ -14930,7 +14981,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="194" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>1081</v>
       </c>
@@ -14974,7 +15025,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="195" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>1087</v>
       </c>
@@ -15018,7 +15069,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="196" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>1092</v>
       </c>
@@ -15071,7 +15122,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="197" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>1101</v>
       </c>
@@ -15121,7 +15172,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="198" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>1106</v>
       </c>
@@ -15180,7 +15231,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="199" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>1114</v>
       </c>
@@ -15224,7 +15275,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="200" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>1119</v>
       </c>
@@ -15283,7 +15334,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="201" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>1127</v>
       </c>
@@ -15324,7 +15375,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="202" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>1132</v>
       </c>
@@ -15368,7 +15419,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="203" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>1139</v>
       </c>
@@ -15409,7 +15460,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="204" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>1146</v>
       </c>
@@ -15468,7 +15519,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="205" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>1154</v>
       </c>
@@ -15509,7 +15560,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="206" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>1159</v>
       </c>
@@ -15568,7 +15619,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="207" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>1165</v>
       </c>
@@ -15609,7 +15660,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="208" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>1172</v>
       </c>
@@ -15653,7 +15704,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="209" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>1178</v>
       </c>
@@ -15694,7 +15745,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="210" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>1185</v>
       </c>
@@ -15750,7 +15801,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="211" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>1192</v>
       </c>
@@ -15791,7 +15842,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="212" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>1198</v>
       </c>
@@ -15835,7 +15886,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="213" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>1203</v>
       </c>
@@ -15885,7 +15936,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="214" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>1210</v>
       </c>
@@ -15932,7 +15983,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="215" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>1215</v>
       </c>
@@ -15982,7 +16033,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="216" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>1221</v>
       </c>
@@ -16038,7 +16089,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="217" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>1228</v>
       </c>
@@ -16088,7 +16139,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="218" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>1233</v>
       </c>
@@ -16135,7 +16186,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="219" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>1238</v>
       </c>
@@ -16185,7 +16236,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="220" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>1241</v>
       </c>
@@ -16241,7 +16292,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="221" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>1248</v>
       </c>
@@ -16288,7 +16339,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="222" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>1255</v>
       </c>
@@ -16329,7 +16380,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="223" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>1260</v>
       </c>
@@ -16376,7 +16427,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="224" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>1266</v>
       </c>
@@ -16420,7 +16471,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="225" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>1273</v>
       </c>
@@ -16467,7 +16518,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="226" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>1279</v>
       </c>
@@ -16511,7 +16562,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="227" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>1285</v>
       </c>
@@ -16555,7 +16606,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="228" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>1291</v>
       </c>
@@ -16596,7 +16647,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="229" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>1295</v>
       </c>
@@ -16637,7 +16688,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="230" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>1302</v>
       </c>
@@ -16675,7 +16726,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="231" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>1305</v>
       </c>
@@ -16710,7 +16761,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="232" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>1311</v>
       </c>
@@ -16757,7 +16808,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="233" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>1317</v>
       </c>
@@ -16810,7 +16861,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="234" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>1325</v>
       </c>
@@ -16848,7 +16899,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="235" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>1331</v>
       </c>
@@ -16889,7 +16940,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="236" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>1337</v>
       </c>
@@ -16927,7 +16978,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="237" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>1337</v>
       </c>
@@ -16962,7 +17013,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="238" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>1346</v>
       </c>
@@ -17003,7 +17054,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="239" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1352</v>
       </c>
@@ -17038,7 +17089,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="240" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>1355</v>
       </c>
@@ -17076,7 +17127,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="241" spans="21:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="21:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="U241" t="s">
         <v>1384</v>
       </c>
@@ -17087,7 +17138,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="242" spans="21:23" x14ac:dyDescent="0.25">
+    <row r="242" spans="21:23" x14ac:dyDescent="0.3">
       <c r="U242" t="s">
         <v>1382</v>
       </c>
@@ -17096,6 +17147,26 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="X2" r:id="rId1" display="https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/kZztiFHA17cENUwQq55DzQ/ebM6_orON5bHJDxezxAlfB4r6DlDWn2kSa5HtEXLk6ugVCxHA12hdR_uA5iILkEA1M6C8LXN33xdVpwiTuIgDs_s6yifHXWtryFrKorErcTGceZ84_47yIKrlpBuIXFIhU3eBIR0J_Ri2uO-v7ou0w/o2-lCtCFQ-wNUEKAKo_QxhP5nT_dA4Ufm-G4jU0KpXY" xr:uid="{017B32AA-BB95-491F-810A-5A17F7AE1932}"/>
+    <hyperlink ref="X3" r:id="rId2" display="https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/OAqly_Fyok4RhirnFp1gUQ/4qI0UWS_3LfG37_A3v5kaOF-8-To3vMM0OmQwuk7nZn3tpWoyJshfOFEGPIko_44jcwS3pOxJWv3rrIbfuqXgK2eFMJGDCXsjox-KDVqd7oIuzERRYt3Syxl9t_bu2cgiqc0c4cLi6x1FpsP6jMpUQ/ZvKlpfO83ONx_ww_vewqPQClIqP1mbobEPedAwbjPQ8" xr:uid="{21289732-32BD-49FB-8A42-CDF8AD69C683}"/>
+    <hyperlink ref="X7" r:id="rId3" display="https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/m5kSU4k1KKH23cVDRPwUUA/TRdDGegVrzqZu30t02BgQEAk-iU4XIPWkk7ESuUISJFYOdeTbriOAbKWpEO5A1TgBFXua8q9At-k8IJIJJ5fProXW9k1hjECr4tITwQFCyMl8-xFM0nMxwR5MfAwBo2isPz-XhQjMvLwm0I3w6XE1g/wm3OPsuQYyZ15iRae5CjYPHKY_dNzvoAYRckNjjQ2dA" xr:uid="{E8C3DFC2-C7C0-4EA3-9FAC-BBB80798DE56}"/>
+    <hyperlink ref="X8" r:id="rId4" display="https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/w7q9qW3tojZCjor1wHqnkA/7wlPx2MLJDAyIgJvBrhG3RON_4Q5OAws8eH3lHNBgBfbTb9SGsbdbe33L1trUe0nKa6bBSd2qy9Q5T28Nb9taGsIGk_wE3FORBQs6TjePtXd9G_04rvg5hJwIpxOQf0oCI6WgATQfrEMuwVCDptLqA/boQ3Vbq1oTWeMcDlnHBGtyTckAMYHRBX2cI0r4jII8Y" xr:uid="{0CD841C6-FA73-4433-A3A2-27484FF61026}"/>
+    <hyperlink ref="X9" r:id="rId5" display="https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/4R6FsYrTAyhEtIXIZ44Suw/fjBDFzz4zt0CvM9-Rii0Y58dsKIg0IkmW07v20zCQs8yPKQQzcrS-rmM_-RSO9l8TAqyf1XQ54I8QgrYJ_d4LVjKkmcEaTPmyx_sHHt5u9JYSOpATfDPcc-RnG2DckV1LXwwNNGz1DRbLdMCWYntvA/Ep-UB-Y-cX2zTQaqEQBYmB7U4xZm7HB-wQlaYCVeVLk" xr:uid="{D4D87EFA-22B1-4EB9-BE0E-5A8F773CDB10}"/>
+    <hyperlink ref="X10" r:id="rId6" display="https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/iOOkEN2NU7UfaGdqUHVTSw/UoDauK9B1OGkAfEcR8I6WuG-VCBOvapTl4JjApyT5l5BNxfK96tso07x0VFVNdOMgGkId60GqiGytHOwUhcab-DVRtYbqy35afVXMVSFgJkB2EAoR3iT0PN-v4oQLKs3CjIU2y24cioF8joRGRuiFA/xrfkmnQ6rCcPdrhx9z3wXgVg6qnQsHp-4rhzSmARdM0" xr:uid="{08EC23C2-1916-405D-9100-05B88101531C}"/>
+    <hyperlink ref="X11" r:id="rId7" display="https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/H16K1lOKv-L6zuY_tFSiGw/eKChfbgw2fej10aG6waEBwSFgHP0w4QNeLPrwgYBm7vyc6n7choVR4WOYDMyZGE7HpYhTSleS-oZO9iiH0ETgc5BBBP7j_qc_fPw2g-vupMnoKU7wdB74Ewq7_7v3t2IpMzCspFOAS0o1gjnRvptfQ/xzqe2Pbz_LWJqxfNycMh3DBTuv54rG6NZAqGk_4Q-Uw" xr:uid="{F758CE5B-B0D3-4CAC-9655-E470585776D4}"/>
+    <hyperlink ref="X12" r:id="rId8" display="https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/1fK-FIebbwyGtfBzHvnBKA/_SNGybeUT0f2YaRbjp970iKKMRfz-lnRrJhbT_wNd7A804xLX6iLU24tTG9JAlw9dYfDQGsaNEz26MAPxT5MmrHTkicwLrKvwU6uhjNXDXnvp6LOa7i1EJtXkGZgBxi3UPNvwzcck7pZrHz4SyPoFg/1QFK2nr01oG9_0umU0zUWjJijGFejXfSSA542pJcAno" xr:uid="{92E2713F-DA0B-44C2-913E-561B373B0859}"/>
+    <hyperlink ref="X13" r:id="rId9" display="https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/VtKR8ZSHuecFmWgyMmZTaw/_VNa1HgKFr5_kFOvYFTjyICZi8ayb8XC2XUUjsNfQXWr2M86jY1DAQ9SGWVGkCUwhsgvkZTSCFVKFTHnCYRqW8ztb1mm2KYfBKL5yKGOy5ywoQdv9Reh6fGVuelAkjxpYkx1KxxkbGQJE1rB_aySIw/-ai59I01otmFn-Fg_EJ9jJ2w_RqJBXFaGhkmDERCIYk" xr:uid="{5821919A-AEE2-400F-9DD6-93EC79899CEC}"/>
+    <hyperlink ref="X14" r:id="rId10" display="https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/UyV0o8RcGsRZXNpAZupt7Q/h2lLKIoW4HPPZza6mO5GRs2iFXhkVzQAukjKNubvh_k4xezajyQE4ekGjtFnj7RjsmZdt6-EfEhxicMIspCCCnBNzQ_CSReyY8Gc9TwnIViyaSdKkUeAJpG-nix5yCQPlVxY91qFetRqUgPZR0iLjw/oQONNDwKgmqD0JY9JbPCGen9sY8Tsha4c1VEqTnIPJc" xr:uid="{1E7956BC-5AF7-4857-90DD-7554723D83DC}"/>
+    <hyperlink ref="X15" r:id="rId11" display="https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/9BLMB0hZeI3bBj5TZdOBFQ/gitEvmQINQSzfF1lBQCs-8FKUl_CvColokPtFi1dt2Lg8DyBUAUOpVKzgNruqmI8wU1XUgmJ844sgPNZ-ew9A0f1tW47S9AirSdUZDsC-Bx34UIQbSiojphEhJ_N2T_Sd-ylXR91DH_wV2wDKENpxw/vsRzvRyh8S6Dj44fKMJ-j5yY7KXJds8oxd3jKZyziR4" xr:uid="{A76C24B4-56A6-4446-AF08-21D1D838EFE5}"/>
+    <hyperlink ref="X16" r:id="rId12" display="https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/vtBfFLLLJojWd09deJUn-w/WsqsDFR3SaxpMLyuJJve4aLjGlbrAvtt7nnS09_j46_lodvYBijJWoGEiDnHCipgbq92pTj0DjKj27uYnHaSQWagsxFoDTqDKEl5MX2beyuekIqrp6G9v5dnlShuLyoJoBfT4PYypLmdhS-khpb2kA/hU9Afr79lN2F_j__u4xVTz6hIsZZk9gm_zVt2Yz-nZA" xr:uid="{7C1E2B17-923F-403A-97A2-DB2EF692CDA3}"/>
+    <hyperlink ref="X17" r:id="rId13" display="https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/UJkZUDxG3ZBvZXwMBY9Dtg/Zck3kSlzekreMcXLnvGaoEKxlcu32E6uQQoY1VFViNkU79EQ6VL-tz94wIXNHYukaxO3avaFm67ykn5nmihW7nS2H0usOA3JLvOmgRGMq-ug9XV8MCJkvbceKm1qAWkd0WD7vZOaAuTbKdMs60Ye3Q/fWeUNaiC6KhFIZJqRm0FIXwqmRcM7NHSX5_pFnaChjs" xr:uid="{5500227C-61C9-45FF-B442-830AF76BD8E8}"/>
+    <hyperlink ref="X18" r:id="rId14" display="https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/rtLeL55YKXNYhq2NGFYU6A/lG1W6EFZpw8e9F_2SYYK7BKpUUEKiLox3DurPSBxEFzr08Nt7SPvcb7k43HUhocpFbF47CFHlKpN5Hv9DFi-SK1VaqiEgMuXswGeSg9ZxgehzE9cXiAge08JyQxIaAeHeN9PfkisqgWRZTHk8SDa8w/qt-OWnzw_brKVgmNtTczAinnPUB1X12k0_SWqhEoUIo" xr:uid="{871528D9-C74E-40B7-BE68-33E943CB0F0A}"/>
+    <hyperlink ref="X19" r:id="rId15" display="https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/E8mqUSeGmsXVTkmwcNnLpQ/-sQVtJbTH10RBfEZd1Rh_9DLaB9t6jvp9qgcECkcIHPa6_E5j92G_vUTQ1THmCgy6l3KRPZXQh0O4bOu20lOB1NOHfbHfq5kEaUs0o0b73vDj9eDOT1U3tFGhPI-qx3K51dhwi0HydYBX-k7ygzlbQ/WUXcBWcRwriHApdpY42WsVXUcUoR8kgnDGIeNg36brE" xr:uid="{EA2AC60B-C193-47A1-9C3A-3C27B1870243}"/>
+    <hyperlink ref="X20" r:id="rId16" display="https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/21S0o_1tqRMp7poKycSyYg/z7QvPVM5cNF7f1OPakoVJZeddEii5D-4fAMaoXFPVEmOOYk6Rz3nNGSRBqLP5Epjn_9kTnN6fh-raYvutZj_SISRtPhtaGv6ai1JMItF0TJZ2L74C0N_sdSK4UHAll3ildLxkC06-1Z8bTGBeoanOg/lgEAgQyPjhlNSjVROr3sXTyVNullgJWJ_rrvYuSQrFM" xr:uid="{58F0A125-3DFA-493D-A545-73CC4FFCE4D3}"/>
+    <hyperlink ref="X21" r:id="rId17" display="https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/6QsPuUX0SUYZtMu2H5DzvQ/aidLtKxYJIzfu2cuhEvb_zLmzdJApe7aHuiRNbeIi0tDlZCLH1sNLXc6N96UiQ_2dPzqkhNzvInXnrHD4XNdrl5lB_qjwm77qaEsg4gfplwzEFvT-UNIpG2ihthCYgE79pgIJR6ARPKvXdpu7DHVjA/ei4BlX5Shysy1fiKZ8dKUoC9fulK_TlXOanE1M2QYN4" xr:uid="{1E87CED2-DB52-4761-9B4C-6AF50EE636C4}"/>
+    <hyperlink ref="X22" r:id="rId18" display="https://v5.airtableusercontent.com/v3/u/35/35/1732449600000/_-drAhiOKFTBHlFbLvHAAQ/jyQbI5b030prW4VS1rGS2HyuWk240xIVW31ahok_0Wje9VF0YtmxPQ6p40BDWT2n6VRFz_tTbcs1eZeI6jt9YkwLhjy29JgOQrDgzOXtAcR2nGeL_0NL1ETVpHcK5CpA70aLqRfGGWvB-Dca8UzcQA/Ph-7beVPctC4VjFl8hNSQcDhHW_5JTJxuOqrGz6l2e8" xr:uid="{1C7C500C-8D15-436B-B778-BE8F1E6F4F72}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>